--- a/data_week1.xlsx
+++ b/data_week1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu.sharepoint.com/teams/nottingham.lab/Shared Documents/Robert Orpet/R club/raindrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AA210286A0488BBF7AEAE1C8B277512E36319D32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94414AFD-0DF0-46F4-805B-C80C1E41E14E}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_AA210286A0488BBF7AEAE1C8B277512E36319D32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9470BC24-A2EA-4E72-B133-20EC0EED3F06}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,107 +354,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A10:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>352</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2345</v>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2345</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B17">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>2314</v>
       </c>
     </row>
@@ -464,6 +464,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B24FF410A7E56441BBC330044C9AF824" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4738c4383d671ccd0bbf562da7d94ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f868355b-24af-4392-b5be-ec299efaed27" xmlns:ns3="9d11e139-228a-453c-8637-148305bc5c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf5cda8f34ac110da126647624604fb" ns2:_="" ns3:_="">
     <xsd:import namespace="f868355b-24af-4392-b5be-ec299efaed27"/>
@@ -686,12 +692,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -702,6 +702,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4493F6-905B-4E1E-99EE-7EE67365D6D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C71C3B0C-3671-4C57-971B-09800BF3D055}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -720,15 +729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4493F6-905B-4E1E-99EE-7EE67365D6D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4B21F1-3D6D-4C7D-9D09-7389873DEF8E}">
   <ds:schemaRefs>
